--- a/data/trans_media/Q23_2_2015-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q23_2_2015-Estudios-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 17,15</t>
+          <t>15,66; 17,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,2; 16,77</t>
+          <t>13,99; 16,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 16,93</t>
+          <t>15,63; 16,9</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 18,2</t>
+          <t>16,59; 18,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 19,34</t>
+          <t>17,0; 19,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 18,11</t>
+          <t>16,86; 18,06</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 18,78</t>
+          <t>17,07; 18,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,45; 21,37</t>
+          <t>18,44; 21,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,48</t>
+          <t>17,81; 19,38</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,71</t>
+          <t>16,7; 17,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 19,17</t>
+          <t>17,38; 19,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,87</t>
+          <t>16,97; 17,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23_2_2015-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q23_2_2015-Estudios-trans_media.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,66; 17,08</t>
+          <t>15,68; 17,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 16,84</t>
+          <t>14,13; 16,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,63; 16,9</t>
+          <t>15,65; 16,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 18,14</t>
+          <t>16,62; 18,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 19,3</t>
+          <t>17,06; 19,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,86; 18,06</t>
+          <t>16,8; 18,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 18,84</t>
+          <t>17,02; 18,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 21,29</t>
+          <t>18,42; 21,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 19,38</t>
+          <t>17,82; 19,47</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,78</t>
+          <t>16,72; 17,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 19,03</t>
+          <t>17,41; 19,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,87</t>
+          <t>16,99; 17,98</t>
         </is>
       </c>
     </row>
